--- a/2021_D3MI_daftar_mahasiswa.xlsx
+++ b/2021_D3MI_daftar_mahasiswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACLAB\Documents\Python Scripts\Nilai Mahasiswa 2023 GENAP\Organisasi dan Arsitektur Sistem Komputer\Manajemen Informatika 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACLAB\Documents\Python Scripts\Nilai Mahasiswa 2023 GANJIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC02A90A-E138-480B-8BAD-344580BF75BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520B8B80-4C0E-43B8-AF4B-9ACD34064549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
   <si>
     <t>Nama</t>
   </si>
@@ -406,6 +406,15 @@
   </si>
   <si>
     <t>shelinsarsina@gmail.com</t>
+  </si>
+  <si>
+    <t>feivmatgulo@gmail.com</t>
+  </si>
+  <si>
+    <t>shelinsinaga11@gmail.com</t>
+  </si>
+  <si>
+    <t>faujiahsitompul@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -768,10 +777,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H995"/>
+  <dimension ref="A1:H997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -842,7 +851,9 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1419,16 +1430,16 @@
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="2">
-        <v>202101027</v>
+        <v>202101026</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1436,7 +1447,6 @@
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <f>IF(B39="","",A37+1)</f>
         <v>27</v>
       </c>
       <c r="B39" s="2">
@@ -1446,7 +1456,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1454,191 +1464,194 @@
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>IF(B40="","",A37+1)</f>
+        <v>27</v>
       </c>
       <c r="B40" s="2">
-        <v>202101028</v>
+        <v>202101027</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2">
-        <v>202101029</v>
+        <v>202101028</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="2">
-        <v>202101030</v>
+        <v>202101029</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2">
-        <v>202101031</v>
+        <v>202101030</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2">
-        <v>202101032</v>
+        <v>202101031</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2">
-        <v>202101033</v>
+        <v>202101032</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2">
-        <v>202101034</v>
+        <v>202101033</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="2">
-        <v>202101035</v>
+        <v>202101034</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="2">
-        <v>202101036</v>
+        <v>202101035</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="2">
-        <v>202101037</v>
+        <v>202101036</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="2">
-        <v>202101038</v>
+        <v>202101037</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="2">
-        <v>202101039</v>
+        <v>202101038</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B52" s="2">
-        <v>202101040</v>
+        <v>202101039</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <f>IF(B53="","",A51+1)</f>
         <v>40</v>
       </c>
       <c r="B53" s="2">
@@ -1648,68 +1661,68 @@
         <v>43</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f>IF(B54="","",A52+1)</f>
+        <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>202101041</v>
+        <v>202101040</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>202101042</v>
+        <v>202101041</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="2">
-        <v>202101043</v>
+        <v>202101042</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B57" s="2">
-        <v>202101044</v>
+        <v>202101043</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <f>IF(B58="","",A56+1)</f>
         <v>44</v>
       </c>
       <c r="B58" s="2">
@@ -1719,287 +1732,304 @@
         <v>47</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>IF(B59="","",A57+1)</f>
+        <v>44</v>
       </c>
       <c r="B59" s="2">
-        <v>202101045</v>
+        <v>202101044</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="2">
-        <v>202101046</v>
+        <v>202101045</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" s="2">
-        <v>202101047</v>
+        <v>202101046</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="2">
-        <v>202101048</v>
+        <v>202101047</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2">
-        <v>202101049</v>
+        <v>202101048</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64" s="2">
-        <v>202101050</v>
+        <v>202101049</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="2">
-        <v>202101051</v>
+        <v>202101050</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2">
-        <v>202101052</v>
+        <v>202101051</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="2">
-        <v>202101053</v>
+        <v>202101052</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="2">
-        <v>202101054</v>
+        <v>202101053</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" s="2">
-        <v>202101055</v>
+        <v>202101054</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" s="2">
-        <v>202001018</v>
+        <v>202101055</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <f t="shared" ref="A71:A112" si="1">IF(B71="","",A70+1)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B71" s="2">
-        <v>202001008</v>
+        <v>202101055</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <f>IF(B72="","",A70+1)</f>
+        <v>56</v>
       </c>
       <c r="B72" s="2">
-        <v>202001050</v>
+        <v>202001018</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f t="shared" ref="A73:A114" si="1">IF(B73="","",A72+1)</f>
+        <v>57</v>
       </c>
       <c r="B73" s="2">
-        <v>202001081</v>
+        <v>202001008</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B74" s="2">
-        <v>202001052</v>
+        <v>202001050</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B75" s="2">
-        <v>202001060</v>
+        <v>202001081</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B76" s="2">
-        <v>202001067</v>
+        <v>202001052</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B77" s="2">
+        <v>202001060</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B78" s="2">
+        <v>202001067</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B79" s="2">
         <v>202101056</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2013,32 +2043,30 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
-        <f>IF(B83="","",#REF!+1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
-        <f>IF(B84="","",#REF!+1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B85="","",#REF!+1)</f>
         <v/>
       </c>
       <c r="D85" s="2"/>
@@ -2052,7 +2080,7 @@
     </row>
     <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
-        <f>IF(B87="","",#REF!+1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D87" s="2"/>
@@ -2073,7 +2101,7 @@
     </row>
     <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B90="","",#REF!+1)</f>
         <v/>
       </c>
       <c r="D90" s="2"/>
@@ -2101,23 +2129,23 @@
     </row>
     <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
-        <f>IF(B94="","",#REF!+1)</f>
-        <v/>
-      </c>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B95="","",#REF!+1)</f>
         <v/>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D96" s="2"/>
+        <f>IF(B96="","",#REF!+1)</f>
+        <v/>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
@@ -2131,12 +2159,14 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
@@ -2149,7 +2179,6 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="str">
@@ -2175,6 +2204,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
@@ -2187,14 +2217,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
@@ -2215,6 +2243,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
@@ -2225,23 +2254,22 @@
     </row>
     <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
-        <f t="shared" ref="A113:A176" si="2">IF(B113="","",A112+1)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D115" s="2"/>
+        <f t="shared" ref="A115:A178" si="2">IF(B115="","",A114+1)</f>
+        <v/>
+      </c>
     </row>
     <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="str">
@@ -2255,12 +2283,14 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
@@ -2315,26 +2345,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D128" s="2"/>
     </row>
     <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D129" s="2"/>
     </row>
     <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D130" s="2"/>
     </row>
     <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="str">
@@ -2347,20 +2377,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
@@ -2369,7 +2398,7 @@
       </c>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2413,13 +2442,13 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="str">
@@ -2433,33 +2462,32 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D147" s="2"/>
     </row>
     <row r="148" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D149" s="2"/>
     </row>
     <row r="150" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="str">
@@ -2473,19 +2501,20 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D153" s="2"/>
     </row>
     <row r="154" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="str">
@@ -2498,6 +2527,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="D155" s="2"/>
     </row>
     <row r="156" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="str">
@@ -2627,19 +2657,19 @@
     </row>
     <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="str">
-        <f t="shared" ref="A177:A240" si="3">IF(B177="","",A176+1)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A179:A242" si="3">IF(B179="","",A178+1)</f>
         <v/>
       </c>
     </row>
@@ -3011,19 +3041,19 @@
     </row>
     <row r="241" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="str">
-        <f t="shared" ref="A241:A304" si="4">IF(B241="","",A240+1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A243:A306" si="4">IF(B243="","",A242+1)</f>
         <v/>
       </c>
     </row>
@@ -3395,19 +3425,19 @@
     </row>
     <row r="305" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="str">
-        <f t="shared" ref="A305:A327" si="5">IF(B305="","",A304+1)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A307:A329" si="5">IF(B307="","",A306+1)</f>
         <v/>
       </c>
     </row>
@@ -3531,8 +3561,18 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A328" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A329" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
     <row r="330" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="331" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="332" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -4199,20 +4239,22 @@
     <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C6 B39:C77 B8:C37">
+  <conditionalFormatting sqref="B2:C6 B40:C79 B8:C38">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C38">
+  <conditionalFormatting sqref="B39:C39">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C38">
+  <conditionalFormatting sqref="B39:C39">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7">
@@ -4221,13 +4263,13 @@
   <conditionalFormatting sqref="B7:C7">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C77">
+  <conditionalFormatting sqref="B2:C79">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78:C154">
+  <conditionalFormatting sqref="B80:C156">
     <cfRule type="duplicateValues" dxfId="1" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D93">
+  <conditionalFormatting sqref="C2:D95">
     <cfRule type="duplicateValues" dxfId="0" priority="76"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
